--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/12,25/23,12,25 Ост СЫР филиалы/дв 23,12,25 лгрсч ост сыр.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/12,25/23,12,25 Ост СЫР филиалы/дв 23,12,25 лгрсч ост сыр.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\23,12,25 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\12,25\23,12,25 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947C3AF2-E28C-436B-9B18-9409D5EF017A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C520F656-33FA-492B-BAAE-E06F78CA96F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2004,7 +2004,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2462,7 +2462,9 @@
         <f>VLOOKUP(A6,[1]Sheet!$A:$I,7,0)</f>
         <v>0.82450000000000001</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4">
+        <v>180</v>
+      </c>
       <c r="I6" s="4">
         <f>VLOOKUP(A6,[1]Sheet!$A:$I,9,0)</f>
         <v>6948249</v>
@@ -2570,7 +2572,9 @@
         <f>VLOOKUP(A7,[1]Sheet!$A:$I,7,0)</f>
         <v>0.372</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4">
+        <v>180</v>
+      </c>
       <c r="I7" s="4">
         <f>VLOOKUP(A7,[1]Sheet!$A:$I,9,0)</f>
         <v>6948256</v>
@@ -2678,7 +2682,9 @@
         <f>VLOOKUP(A8,[1]Sheet!$A:$I,7,0)</f>
         <v>0.74399999999999999</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4">
+        <v>180</v>
+      </c>
       <c r="I8" s="4">
         <f>VLOOKUP(A8,[1]Sheet!$A:$I,9,0)</f>
         <v>6948263</v>
@@ -2786,7 +2792,9 @@
         <f>VLOOKUP(A9,[1]Sheet!$A:$I,7,0)</f>
         <v>0.372</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4">
+        <v>180</v>
+      </c>
       <c r="I9" s="4">
         <f>VLOOKUP(A9,[1]Sheet!$A:$I,9,0)</f>
         <v>6948270</v>
@@ -2894,7 +2902,9 @@
         <f>VLOOKUP(A10,[1]Sheet!$A:$I,7,0)</f>
         <v>0.74399999999999999</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4">
+        <v>180</v>
+      </c>
       <c r="I10" s="4">
         <f>VLOOKUP(A10,[1]Sheet!$A:$I,9,0)</f>
         <v>6948287</v>
